--- a/InClassWorkingFiles/Date Functions_StartFile.xlsx
+++ b/InClassWorkingFiles/Date Functions_StartFile.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FunXExcel Channel\4.Date Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Excel_for_Data_Science\InClassWorkingFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523AD53E-891F-4B03-B954-A333E557E5D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="6855" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calender" sheetId="18" r:id="rId1"/>
     <sheet name="DateFunctions1" sheetId="1" r:id="rId2"/>
-    <sheet name="NETWORKDAYS" sheetId="19" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId3"/>
+    <sheet name="NETWORKDAYS" sheetId="19" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Fxnikee</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,12 +63,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Fxnikee</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Start Date</t>
   </si>
@@ -153,14 +155,22 @@
   </si>
   <si>
     <t>NETWORKDAYS - Example with date picker</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>INV-123-Ban</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh\:mm\:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -331,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -352,6 +362,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,9 +374,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,14 +1134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1137,179 +1149,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I7"/>
+    <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>44059</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="14"/>
       <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="14">
+        <v>44059</v>
+      </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="14"/>
       <c r="I5" s="5"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="20">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="14">
+        <v>44196</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="I6" s="5"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="15"/>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="15">
+        <f>C6-C5</f>
+        <v>137</v>
+      </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="14"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="I9" s="3"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="21">
+        <v>226.45138888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="15">
+        <f>DAY(C5)</f>
+        <v>16</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="15"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="21">
+        <f>ROUND(K9,0)</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="15">
+        <f>MONTH(C5)</f>
+        <v>8</v>
+      </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="15"/>
       <c r="I11" s="3"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="15">
+        <f>YEAR(C5)</f>
+        <v>2020</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="15"/>
       <c r="I13" s="3"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="14">
+        <f>DATE(C12,C11,C10)</f>
+        <v>44059</v>
+      </c>
       <c r="E14" s="9">
         <v>42501</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="15"/>
       <c r="I14" s="4"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="14">
+        <f>DATE(C12,C11,C10+100)</f>
+        <v>44159</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="15"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="14"/>
       <c r="E16" s="9">
         <v>42558</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="15"/>
       <c r="K16" s="13"/>
     </row>
   </sheetData>
@@ -1323,62 +1371,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431360BD-5507-4E0B-A02E-B534AFCA0C34}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">TODAY()</f>
-        <v>42924</v>
+        <v>44059</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +1460,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
@@ -1401,13 +1472,13 @@
         <v>42445</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
       <c r="F7" s="5">
         <v>42457</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1419,23 +1490,23 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F9" s="5">
         <v>42472</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F10" s="5">
         <v>42481</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="4"/>
     </row>
   </sheetData>

--- a/InClassWorkingFiles/Date Functions_StartFile.xlsx
+++ b/InClassWorkingFiles/Date Functions_StartFile.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Excel_for_Data_Science\InClassWorkingFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523AD53E-891F-4B03-B954-A333E557E5D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C020F3E7-323C-4578-9165-1B883292CA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calender" sheetId="18" r:id="rId1"/>
     <sheet name="DateFunctions1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId3"/>
-    <sheet name="NETWORKDAYS" sheetId="19" r:id="rId4"/>
+    <sheet name="NETWORKDAYS" sheetId="19" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -98,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Start Date</t>
   </si>
@@ -158,9 +157,6 @@
   </si>
   <si>
     <t>Text</t>
-  </si>
-  <si>
-    <t>INV-123-Ban</t>
   </si>
 </sst>
 </file>
@@ -169,8 +165,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh\:mm\:ss"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh\:mm\:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -341,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -365,6 +361,8 @@
     <xf numFmtId="15" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,8 +372,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,27 +1164,27 @@
     <col min="7" max="7" width="4.33203125" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="23.77734375" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1"/>
     <col min="14" max="14" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
@@ -1198,7 +1195,7 @@
       </c>
       <c r="C4" s="16">
         <f ca="1">TODAY()</f>
-        <v>44059</v>
+        <v>44080</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>7</v>
@@ -1207,22 +1204,24 @@
       <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="11"/>
+      <c r="K4" s="10">
+        <v>345</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="14">
-        <v>44059</v>
+        <v>44080</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="14"/>
       <c r="I5" s="5"/>
-      <c r="K5" s="20">
-        <v>367</v>
+      <c r="K5" s="17">
+        <v>44080</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1251,10 +1250,7 @@
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
-        <f>C6-C5</f>
-        <v>137</v>
-      </c>
+      <c r="C8" s="15"/>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +1260,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="I9" s="3"/>
-      <c r="K9" s="21">
+      <c r="K9" s="18">
         <v>226.45138888888889</v>
       </c>
     </row>
@@ -1272,16 +1268,13 @@
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="15">
-        <f>DAY(C5)</f>
-        <v>16</v>
-      </c>
+      <c r="C10" s="15"/>
       <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="15"/>
       <c r="I10" s="3"/>
-      <c r="K10" s="21">
+      <c r="K10" s="18">
         <f>ROUND(K9,0)</f>
         <v>226</v>
       </c>
@@ -1290,10 +1283,7 @@
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="15">
-        <f>MONTH(C5)</f>
-        <v>8</v>
-      </c>
+      <c r="C11" s="15"/>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1305,15 +1295,12 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15">
-        <f>YEAR(C5)</f>
-        <v>2020</v>
-      </c>
+      <c r="C12" s="15"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="15"/>
@@ -1324,10 +1311,7 @@
       <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="14">
-        <f>DATE(C12,C11,C10)</f>
-        <v>44059</v>
-      </c>
+      <c r="C14" s="14"/>
       <c r="E14" s="9">
         <v>42501</v>
       </c>
@@ -1339,10 +1323,7 @@
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="14">
-        <f>DATE(C12,C11,C10+100)</f>
-        <v>44159</v>
-      </c>
+      <c r="C15" s="14"/>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1371,34 +1352,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431360BD-5507-4E0B-A02E-B534AFCA0C34}">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,21 +1376,21 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
@@ -1443,7 +1401,7 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">TODAY()</f>
-        <v>44059</v>
+        <v>44080</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>2</v>
